--- a/input_data/skill_mapping.xlsx
+++ b/input_data/skill_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuário\Documents\Barapau\PyEPO\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E2D7DE-D9BF-426E-9AB7-C0CEBF7309A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53BC50D-9977-4CBE-8B33-D3B921C9E7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19290" yWindow="-2625" windowWidth="19380" windowHeight="10260" xr2:uid="{6A50DA06-C6B4-41DA-98BE-44323314EBA1}"/>
   </bookViews>
